--- a/dendrometer_key_FUELINEX.xlsx
+++ b/dendrometer_key_FUELINEX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF43A798-BC6F-FC45-8010-E93BDB2C513A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C436730-7D16-6D45-B38D-2EFB6EAAFE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{8AE270DD-4AD0-6D44-A64C-A022C64B7DD0}"/>
   </bookViews>
